--- a/Graph/Data/Graph_stand_500.xlsx
+++ b/Graph/Data/Graph_stand_500.xlsx
@@ -46,7 +46,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -641,7 +641,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -968,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A479" workbookViewId="0">
+      <selection activeCell="P488" sqref="P488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
